--- a/data/trans_camb/P16A18-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Edad-trans_camb.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas</t>
+          <t>Mujeres menores de 55 años que han consumido anticonceptivos en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A18-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Edad-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2956528493971672</v>
+        <v>0.6788625757965022</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.47145754868852</v>
+        <v>-5.506820087976346</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-11.71134314642321</v>
+        <v>-11.48659506380962</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.715846433390926</v>
+        <v>9.874320975610301</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.105254249718371</v>
+        <v>2.372370774232593</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-4.843093456496057</v>
+        <v>-5.020056103120627</v>
       </c>
     </row>
     <row r="7">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.006461741584888191</v>
+        <v>0.05588433277602295</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4518560136893346</v>
+        <v>-0.4692107353168198</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.9418946873771917</v>
+        <v>-0.9435974561598997</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.098018159520257</v>
+        <v>1.115948362187874</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2672341944198203</v>
+        <v>0.2796210697744584</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.4866364091318844</v>
+        <v>-0.4826692774378595</v>
       </c>
     </row>
     <row r="10">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.864134121243043</v>
+        <v>-3.295606459568516</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.836833556804773</v>
+        <v>-8.470116148724159</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-13.01493192960709</v>
+        <v>-12.8989695708878</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.749837635925843</v>
+        <v>5.628755518793467</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.9490204717628989</v>
+        <v>-1.150458890227799</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-5.282174962116943</v>
+        <v>-5.471578877411518</v>
       </c>
     </row>
     <row r="13">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1578488829794709</v>
+        <v>-0.1901463648182913</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4804564480978147</v>
+        <v>-0.4708102598748402</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7359032246567088</v>
+        <v>-0.7389741901878901</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4241896100439743</v>
+        <v>0.4013648987926942</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.06559872369674957</v>
+        <v>-0.06118972004534666</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.3740898795132353</v>
+        <v>-0.3803565506692751</v>
       </c>
     </row>
     <row r="16">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.102279578322582</v>
+        <v>-2.177204653731747</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.044500042499478</v>
+        <v>-4.132565613350515</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.205450039666624</v>
+        <v>-6.883104402641578</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.550380730736714</v>
+        <v>3.408784960687274</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.254545059597223</v>
+        <v>1.080983484346883</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-2.298460538873047</v>
+        <v>-2.324895909557901</v>
       </c>
     </row>
     <row r="19">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2727270681196375</v>
+        <v>-0.282036334060676</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4924773041071215</v>
+        <v>-0.5002604570086191</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.8057014797266507</v>
+        <v>-0.7975066190551275</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6655674093801465</v>
+        <v>0.6211644696799007</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2467306668078346</v>
+        <v>0.2156001954095517</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.3755872854578192</v>
+        <v>-0.391263461255103</v>
       </c>
     </row>
     <row r="22">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.75562338859033</v>
+        <v>-3.354737178269695</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.947951344729026</v>
+        <v>-2.828802093034015</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.60506340360294</v>
+        <v>-3.74375364717442</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1504109222252839</v>
+        <v>0.1178673812601613</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.171091307321288</v>
+        <v>1.197260772231061</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.1489873414240039</v>
+        <v>-0.1277210426785636</v>
       </c>
     </row>
     <row r="25">
@@ -959,7 +959,7 @@
         <v>-0.2444226219220185</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.509264250384696</v>
+        <v>-0.5092642503846959</v>
       </c>
     </row>
     <row r="26">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.791686028231415</v>
+        <v>-0.7527045689512243</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6306982510404683</v>
+        <v>-0.6421566352867268</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.7549183585341069</v>
+        <v>-0.7516975260897975</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1292756177315603</v>
+        <v>0.1115724358251924</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5913990435930397</v>
+        <v>0.6471094530694053</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.04724757669837053</v>
+        <v>0.02883061481406776</v>
       </c>
     </row>
     <row r="28">
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.070932798407761</v>
+        <v>8.204591262573334</v>
       </c>
       <c r="D30" s="5" t="inlineStr"/>
       <c r="E30" s="5" t="inlineStr"/>
@@ -1109,13 +1109,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.017159365533262</v>
+        <v>-1.037109172338638</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.158231583995972</v>
+        <v>-4.129470455736514</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-7.414087252711949</v>
+        <v>-7.377200410578608</v>
       </c>
     </row>
     <row r="36">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.349754135975976</v>
+        <v>2.456755543258036</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-1.142969059271644</v>
+        <v>-1.016732159993321</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-4.608377174309013</v>
+        <v>-4.525295368502923</v>
       </c>
     </row>
     <row r="37">
@@ -1160,13 +1160,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1037561511392146</v>
+        <v>-0.1049629658634036</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.425595342807395</v>
+        <v>-0.419461477967645</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.7572192246445223</v>
+        <v>-0.7587500531729666</v>
       </c>
     </row>
     <row r="39">
@@ -1177,13 +1177,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.2881092022093455</v>
+        <v>0.3091094087721476</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.1358626663834204</v>
+        <v>-0.1342216980710885</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.5700413866968829</v>
+        <v>-0.5621550864729769</v>
       </c>
     </row>
     <row r="40">
